--- a/XL/OutReach_event_information.xlsx
+++ b/XL/OutReach_event_information.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003CC00C-65B8-452F-8A81-EE9296CC01A0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C1AC5D-41E8-4411-84BB-4469F44C6C90}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -572,7 +572,7 @@
         <v>43449</v>
       </c>
       <c r="H3" s="1">
-        <v>715013</v>
+        <v>715014</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>25</v>
